--- a/public/static/震情灾情统计表.xlsx
+++ b/public/static/震情灾情统计表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smile\Desktop\雅安项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\big_project\yaan_project\yaan-vue3\public\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D779AC7D-56BD-4570-8074-F38EC346C3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB959840-4453-4DCE-8569-B95F2C5F900B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
